--- a/Casos dengue - Fortaleza - 2024.xlsx
+++ b/Casos dengue - Fortaleza - 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\OneDrive\Desktop\Denguefortaleza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9321A9-0B50-495A-A2CF-A38E871F72E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF14C3-65D4-4DD2-A1E3-9F62103745A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32B877CD-17A9-4514-806C-D495F1B6667D}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <t>OLAVO OLIVEIRA</t>
   </si>
   <si>
-    <t>DENGUE TOTAL</t>
-  </si>
-  <si>
     <t>CASOS GRAVES TOTAIS</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>BAIRRO</t>
+  </si>
+  <si>
+    <t>CASOS DE DENGUE TOTAIS</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1005,7 +1005,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1384,7 +1383,7 @@
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,27 +1418,26 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1449,7 +1447,6 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1473,7 +1470,6 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1497,7 +1493,6 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1521,7 +1516,6 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1545,7 +1539,6 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1569,7 +1562,6 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1593,7 +1585,6 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1617,7 +1608,6 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1641,7 +1631,6 @@
       <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1665,7 +1654,6 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1689,9 +1677,8 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1713,9 +1700,8 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1737,9 +1723,8 @@
       <c r="G18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -1761,9 +1746,8 @@
       <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1785,9 +1769,8 @@
       <c r="G20" s="5">
         <v>0</v>
       </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -1809,9 +1792,8 @@
       <c r="G21" s="5">
         <v>0</v>
       </c>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
@@ -1833,9 +1815,8 @@
       <c r="G22" s="5">
         <v>0</v>
       </c>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1857,9 +1838,8 @@
       <c r="G23" s="5">
         <v>0</v>
       </c>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -1881,9 +1861,8 @@
       <c r="G24" s="5">
         <v>0</v>
       </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1905,9 +1884,8 @@
       <c r="G25" s="5">
         <v>0</v>
       </c>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -1929,9 +1907,8 @@
       <c r="G26" s="5">
         <v>0</v>
       </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1953,9 +1930,8 @@
       <c r="G27" s="5">
         <v>0</v>
       </c>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1977,9 +1953,8 @@
       <c r="G28" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -2001,9 +1976,8 @@
       <c r="G29" s="5">
         <v>0</v>
       </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
@@ -2025,9 +1999,8 @@
       <c r="G30" s="5">
         <v>0</v>
       </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
@@ -2049,9 +2022,8 @@
       <c r="G31" s="5">
         <v>0</v>
       </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
@@ -2073,9 +2045,8 @@
       <c r="G32" s="5">
         <v>0</v>
       </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
@@ -2097,9 +2068,8 @@
       <c r="G33" s="5">
         <v>0</v>
       </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
@@ -2121,9 +2091,8 @@
       <c r="G34" s="5">
         <v>0</v>
       </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -2145,9 +2114,8 @@
       <c r="G35" s="5">
         <v>0</v>
       </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -2169,9 +2137,8 @@
       <c r="G36" s="5">
         <v>1</v>
       </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
@@ -2193,9 +2160,8 @@
       <c r="G37" s="5">
         <v>0</v>
       </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
@@ -2217,9 +2183,8 @@
       <c r="G38" s="5">
         <v>0</v>
       </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
@@ -2241,9 +2206,8 @@
       <c r="G39" s="5">
         <v>0</v>
       </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
@@ -2265,9 +2229,8 @@
       <c r="G40" s="5">
         <v>0</v>
       </c>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -2289,9 +2252,8 @@
       <c r="G41" s="5">
         <v>0</v>
       </c>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -2313,9 +2275,8 @@
       <c r="G42" s="5">
         <v>0</v>
       </c>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
@@ -2337,9 +2298,8 @@
       <c r="G43" s="5">
         <v>0</v>
       </c>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
@@ -2361,9 +2321,8 @@
       <c r="G44" s="5">
         <v>0</v>
       </c>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
@@ -2385,9 +2344,8 @@
       <c r="G45" s="5">
         <v>0</v>
       </c>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -2409,9 +2367,8 @@
       <c r="G46" s="5">
         <v>0</v>
       </c>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
@@ -2433,9 +2390,8 @@
       <c r="G47" s="5">
         <v>0</v>
       </c>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
@@ -2457,9 +2413,8 @@
       <c r="G48" s="5">
         <v>0</v>
       </c>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
@@ -2481,9 +2436,8 @@
       <c r="G49" s="5">
         <v>0</v>
       </c>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
@@ -2505,9 +2459,8 @@
       <c r="G50" s="5">
         <v>0</v>
       </c>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
@@ -2529,9 +2482,8 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
@@ -2553,9 +2505,8 @@
       <c r="G52" s="5">
         <v>0</v>
       </c>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
@@ -2577,9 +2528,8 @@
       <c r="G53" s="5">
         <v>0</v>
       </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
@@ -2601,9 +2551,8 @@
       <c r="G54" s="5">
         <v>0</v>
       </c>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
@@ -2625,9 +2574,8 @@
       <c r="G55" s="5">
         <v>0</v>
       </c>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -2649,9 +2597,8 @@
       <c r="G56" s="5">
         <v>0</v>
       </c>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2673,9 +2620,8 @@
       <c r="G57" s="5">
         <v>0</v>
       </c>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>54</v>
       </c>
@@ -2697,9 +2643,8 @@
       <c r="G58" s="5">
         <v>0</v>
       </c>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
@@ -2721,9 +2666,8 @@
       <c r="G59" s="5">
         <v>0</v>
       </c>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
@@ -2745,9 +2689,8 @@
       <c r="G60" s="5">
         <v>0</v>
       </c>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>57</v>
       </c>
@@ -2769,9 +2712,8 @@
       <c r="G61" s="5">
         <v>0</v>
       </c>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
@@ -2793,9 +2735,8 @@
       <c r="G62" s="5">
         <v>0</v>
       </c>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>59</v>
       </c>
@@ -2817,9 +2758,8 @@
       <c r="G63" s="5">
         <v>0</v>
       </c>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>60</v>
       </c>
@@ -2841,9 +2781,8 @@
       <c r="G64" s="5">
         <v>0</v>
       </c>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>61</v>
       </c>
@@ -2865,9 +2804,8 @@
       <c r="G65" s="5">
         <v>0</v>
       </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>62</v>
       </c>
@@ -2889,9 +2827,8 @@
       <c r="G66" s="5">
         <v>0</v>
       </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>63</v>
       </c>
@@ -2913,9 +2850,8 @@
       <c r="G67" s="5">
         <v>0</v>
       </c>
-      <c r="H67" s="14"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>64</v>
       </c>
@@ -2937,9 +2873,8 @@
       <c r="G68" s="5">
         <v>0</v>
       </c>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>65</v>
       </c>
@@ -2961,9 +2896,8 @@
       <c r="G69" s="5">
         <v>0</v>
       </c>
-      <c r="H69" s="14"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>66</v>
       </c>
@@ -2985,9 +2919,8 @@
       <c r="G70" s="5">
         <v>0</v>
       </c>
-      <c r="H70" s="14"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>67</v>
       </c>
@@ -3009,9 +2942,8 @@
       <c r="G71" s="5">
         <v>0</v>
       </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>68</v>
       </c>
@@ -3033,9 +2965,8 @@
       <c r="G72" s="5">
         <v>0</v>
       </c>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>69</v>
       </c>
@@ -3057,9 +2988,8 @@
       <c r="G73" s="5">
         <v>0</v>
       </c>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>70</v>
       </c>
@@ -3081,9 +3011,8 @@
       <c r="G74" s="5">
         <v>0</v>
       </c>
-      <c r="H74" s="14"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>71</v>
       </c>
@@ -3105,9 +3034,8 @@
       <c r="G75" s="5">
         <v>0</v>
       </c>
-      <c r="H75" s="14"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>72</v>
       </c>
@@ -3129,9 +3057,8 @@
       <c r="G76" s="5">
         <v>0</v>
       </c>
-      <c r="H76" s="14"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,9 +3080,8 @@
       <c r="G77" s="5">
         <v>0</v>
       </c>
-      <c r="H77" s="14"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>74</v>
       </c>
@@ -3177,9 +3103,8 @@
       <c r="G78" s="5">
         <v>0</v>
       </c>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>75</v>
       </c>
@@ -3201,9 +3126,8 @@
       <c r="G79" s="5">
         <v>0</v>
       </c>
-      <c r="H79" s="14"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>76</v>
       </c>
@@ -3225,9 +3149,8 @@
       <c r="G80" s="5">
         <v>0</v>
       </c>
-      <c r="H80" s="14"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>77</v>
       </c>
@@ -3249,9 +3172,8 @@
       <c r="G81" s="5">
         <v>0</v>
       </c>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>78</v>
       </c>
@@ -3273,9 +3195,8 @@
       <c r="G82" s="5">
         <v>0</v>
       </c>
-      <c r="H82" s="14"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>79</v>
       </c>
@@ -3297,9 +3218,8 @@
       <c r="G83" s="5">
         <v>0</v>
       </c>
-      <c r="H83" s="14"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>80</v>
       </c>
@@ -3321,9 +3241,8 @@
       <c r="G84" s="5">
         <v>0</v>
       </c>
-      <c r="H84" s="14"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>81</v>
       </c>
@@ -3345,9 +3264,8 @@
       <c r="G85" s="5">
         <v>0</v>
       </c>
-      <c r="H85" s="14"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>82</v>
       </c>
@@ -3369,9 +3287,8 @@
       <c r="G86" s="5">
         <v>1</v>
       </c>
-      <c r="H86" s="14"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>83</v>
       </c>
@@ -3393,9 +3310,8 @@
       <c r="G87" s="5">
         <v>0</v>
       </c>
-      <c r="H87" s="14"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>84</v>
       </c>
@@ -3417,9 +3333,8 @@
       <c r="G88" s="5">
         <v>0</v>
       </c>
-      <c r="H88" s="14"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>85</v>
       </c>
@@ -3441,9 +3356,8 @@
       <c r="G89" s="5">
         <v>0</v>
       </c>
-      <c r="H89" s="14"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>86</v>
       </c>
@@ -3465,9 +3379,8 @@
       <c r="G90" s="5">
         <v>0</v>
       </c>
-      <c r="H90" s="14"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>87</v>
       </c>
@@ -3489,9 +3402,8 @@
       <c r="G91" s="5">
         <v>0</v>
       </c>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>88</v>
       </c>
@@ -3513,9 +3425,8 @@
       <c r="G92" s="5">
         <v>0</v>
       </c>
-      <c r="H92" s="14"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>89</v>
       </c>
@@ -3537,9 +3448,8 @@
       <c r="G93" s="5">
         <v>0</v>
       </c>
-      <c r="H93" s="14"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>90</v>
       </c>
@@ -3561,9 +3471,8 @@
       <c r="G94" s="5">
         <v>0</v>
       </c>
-      <c r="H94" s="14"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>91</v>
       </c>
@@ -3585,9 +3494,8 @@
       <c r="G95" s="5">
         <v>0</v>
       </c>
-      <c r="H95" s="14"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>92</v>
       </c>
@@ -3609,9 +3517,8 @@
       <c r="G96" s="5">
         <v>0</v>
       </c>
-      <c r="H96" s="14"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>93</v>
       </c>
@@ -3633,9 +3540,8 @@
       <c r="G97" s="5">
         <v>0</v>
       </c>
-      <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>94</v>
       </c>
@@ -3657,9 +3563,8 @@
       <c r="G98" s="5">
         <v>0</v>
       </c>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>95</v>
       </c>
@@ -3681,9 +3586,8 @@
       <c r="G99" s="5">
         <v>0</v>
       </c>
-      <c r="H99" s="14"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>96</v>
       </c>
@@ -3705,9 +3609,8 @@
       <c r="G100" s="5">
         <v>0</v>
       </c>
-      <c r="H100" s="14"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -3729,9 +3632,8 @@
       <c r="G101" s="5">
         <v>0</v>
       </c>
-      <c r="H101" s="14"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>98</v>
       </c>
@@ -3753,9 +3655,8 @@
       <c r="G102" s="5">
         <v>0</v>
       </c>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>99</v>
       </c>
@@ -3777,9 +3678,8 @@
       <c r="G103" s="5">
         <v>0</v>
       </c>
-      <c r="H103" s="14"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>100</v>
       </c>
@@ -3801,9 +3701,8 @@
       <c r="G104" s="5">
         <v>0</v>
       </c>
-      <c r="H104" s="14"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>101</v>
       </c>
@@ -3825,9 +3724,8 @@
       <c r="G105" s="5">
         <v>0</v>
       </c>
-      <c r="H105" s="14"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>102</v>
       </c>
@@ -3849,9 +3747,8 @@
       <c r="G106" s="5">
         <v>0</v>
       </c>
-      <c r="H106" s="14"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>103</v>
       </c>
@@ -3873,9 +3770,8 @@
       <c r="G107" s="5">
         <v>0</v>
       </c>
-      <c r="H107" s="14"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>104</v>
       </c>
@@ -3897,9 +3793,8 @@
       <c r="G108" s="5">
         <v>0</v>
       </c>
-      <c r="H108" s="14"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>105</v>
       </c>
@@ -3921,9 +3816,8 @@
       <c r="G109" s="5">
         <v>0</v>
       </c>
-      <c r="H109" s="14"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>106</v>
       </c>
@@ -3945,9 +3839,8 @@
       <c r="G110" s="5">
         <v>0</v>
       </c>
-      <c r="H110" s="14"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>107</v>
       </c>
@@ -3969,9 +3862,8 @@
       <c r="G111" s="5">
         <v>0</v>
       </c>
-      <c r="H111" s="14"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>108</v>
       </c>
@@ -3993,9 +3885,8 @@
       <c r="G112" s="5">
         <v>0</v>
       </c>
-      <c r="H112" s="14"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>109</v>
       </c>
@@ -4017,9 +3908,8 @@
       <c r="G113" s="5">
         <v>0</v>
       </c>
-      <c r="H113" s="14"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>110</v>
       </c>
@@ -4041,9 +3931,8 @@
       <c r="G114" s="5">
         <v>0</v>
       </c>
-      <c r="H114" s="14"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>111</v>
       </c>
@@ -4065,9 +3954,8 @@
       <c r="G115" s="5">
         <v>0</v>
       </c>
-      <c r="H115" s="14"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
@@ -4089,9 +3977,8 @@
       <c r="G116" s="5">
         <v>0</v>
       </c>
-      <c r="H116" s="14"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>113</v>
       </c>
@@ -4113,9 +4000,8 @@
       <c r="G117" s="5">
         <v>0</v>
       </c>
-      <c r="H117" s="14"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>114</v>
       </c>
@@ -4137,9 +4023,8 @@
       <c r="G118" s="5">
         <v>0</v>
       </c>
-      <c r="H118" s="14"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>115</v>
       </c>
@@ -4161,9 +4046,8 @@
       <c r="G119" s="5">
         <v>0</v>
       </c>
-      <c r="H119" s="14"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>116</v>
       </c>
@@ -4185,9 +4069,8 @@
       <c r="G120" s="5">
         <v>0</v>
       </c>
-      <c r="H120" s="14"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>117</v>
       </c>
@@ -4209,9 +4092,8 @@
       <c r="G121" s="5">
         <v>0</v>
       </c>
-      <c r="H121" s="14"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>118</v>
       </c>
@@ -4233,9 +4115,8 @@
       <c r="G122" s="5">
         <v>0</v>
       </c>
-      <c r="H122" s="14"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>119</v>
       </c>
@@ -4257,9 +4138,8 @@
       <c r="G123" s="5">
         <v>0</v>
       </c>
-      <c r="H123" s="14"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>2</v>
       </c>
@@ -4281,18 +4161,17 @@
       <c r="G124" s="5">
         <v>2</v>
       </c>
-      <c r="H124" s="14"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
